--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>未统计</t>
   </si>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑炭香波63</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +430,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -497,7 +505,12 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2"/>

--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>未统计</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>黑炭香波63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐26.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池和冰淇淋12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +442,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -510,6 +522,18 @@
       </c>
       <c r="B3" t="s">
         <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>153.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">

--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>未统计</t>
   </si>
@@ -101,6 +101,26 @@
   </si>
   <si>
     <t>电池和冰淇淋12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿泉水+养乐多10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +462,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -537,10 +557,23 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>未统计</t>
   </si>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>杂项10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿泉水+养乐多 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,14 +470,14 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
@@ -573,6 +581,12 @@
       </c>
       <c r="B5" t="s">
         <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>未统计</t>
   </si>
@@ -129,6 +129,78 @@
   </si>
   <si>
     <t>晚餐14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食18.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇幼128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼子7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃的25.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设路34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙膏，王记，水52.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗狗60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9果汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -574,6 +646,9 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
+      <c r="N4">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
@@ -587,6 +662,88 @@
       </c>
       <c r="D5" t="s">
         <v>28</v>
+      </c>
+      <c r="N5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>未统计</t>
   </si>
@@ -201,6 +201,26 @@
   </si>
   <si>
     <t>8咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5脉动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -746,6 +766,25 @@
         <v>46</v>
       </c>
     </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DailyCost/2019年6月起的消耗支出.xlsx
+++ b/DailyCost/2019年6月起的消耗支出.xlsx
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A17:XFD17"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:15">
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -783,6 +783,178 @@
       </c>
       <c r="E17" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>435</v>
+      </c>
+      <c r="F19">
+        <v>359</v>
+      </c>
+      <c r="G19">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>202</v>
+      </c>
+      <c r="J19">
+        <v>59</v>
+      </c>
+      <c r="K19">
+        <v>94</v>
+      </c>
+      <c r="L19">
+        <v>59</v>
+      </c>
+      <c r="M19">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20">
+        <v>83</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>139</v>
+      </c>
+      <c r="F20">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+      <c r="H20">
+        <v>140</v>
+      </c>
+      <c r="I20">
+        <v>58</v>
+      </c>
+      <c r="J20">
+        <v>59</v>
+      </c>
+      <c r="K20">
+        <v>96</v>
+      </c>
+      <c r="L20">
+        <v>87</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>250</v>
+      </c>
+      <c r="F21">
+        <v>71</v>
+      </c>
+      <c r="G21">
+        <v>1450</v>
+      </c>
+      <c r="H21">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>105</v>
+      </c>
+      <c r="E23">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>1050</v>
+      </c>
+      <c r="I23">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>70</v>
+      </c>
+      <c r="K23">
+        <v>550</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>139</v>
+      </c>
+      <c r="O23">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>132</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24">
+        <v>220</v>
+      </c>
+      <c r="G24">
+        <v>320</v>
+      </c>
+      <c r="H24">
+        <v>335</v>
+      </c>
+      <c r="I24">
+        <v>200</v>
+      </c>
+      <c r="J24">
+        <v>55</v>
+      </c>
+      <c r="K24">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
